--- a/outputs-r202/f__Campylobacteraceae.xlsx
+++ b/outputs-r202/f__Campylobacteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -501,6 +506,11 @@
         <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>g__Campylobacter</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>g__Campylobacter</t>
         </is>
